--- a/task.xlsx
+++ b/task.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -424,28 +423,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>123</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
-          <t>Keyboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>touchpad</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>microphon</t>
+          <t>DSDF</t>
         </is>
       </c>
     </row>

--- a/task.xlsx
+++ b/task.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -432,6 +432,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kubatov</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
